--- a/Planilhas/Planilhas_resultados.xlsx
+++ b/Planilhas/Planilhas_resultados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sequencial" sheetId="1" state="visible" r:id="rId2"/>
@@ -191,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -228,11 +228,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4930,8 +4934,8 @@
   </sheetPr>
   <dimension ref="A1:R575"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5194,22 +5198,22 @@
       <c r="L8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="11" t="n">
         <v>3.778</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="11" t="n">
         <v>3.18</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="11" t="n">
         <v>2.208</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="11" t="n">
         <v>1.848</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="Q8" s="11" t="n">
         <v>1.688</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="11" t="n">
         <v>1.639</v>
       </c>
     </row>
@@ -5229,22 +5233,22 @@
       <c r="L9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="11" t="n">
         <v>5.184</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="11" t="n">
         <v>4.074</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="11" t="n">
         <v>3.689</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="11" t="n">
         <v>2.992</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="11" t="n">
         <v>2.955</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="11" t="n">
         <v>2.969</v>
       </c>
     </row>
@@ -5264,22 +5268,22 @@
       <c r="L10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="11" t="n">
         <v>8.041</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="11" t="n">
         <v>6.772</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="11" t="n">
         <v>6.167</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="11" t="n">
         <v>5.936</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="Q10" s="11" t="n">
         <v>5.383</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="11" t="n">
         <v>5.411</v>
       </c>
     </row>
@@ -5296,6 +5300,12 @@
       <c r="D11" s="1" t="n">
         <v>19.997</v>
       </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -5322,13 +5332,13 @@
       <c r="O12" s="9" t="n">
         <v>5.931</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="11" t="n">
         <v>3.778</v>
       </c>
-      <c r="Q12" s="3" t="n">
+      <c r="Q12" s="11" t="n">
         <v>5.184</v>
       </c>
-      <c r="R12" s="3" t="n">
+      <c r="R12" s="11" t="n">
         <v>8.041</v>
       </c>
     </row>
@@ -5348,22 +5358,22 @@
       <c r="L13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="11" t="n">
         <v>9.993</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="11" t="n">
         <v>5.557</v>
       </c>
       <c r="O13" s="9" t="n">
         <v>3.565</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="11" t="n">
         <v>3.18</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="Q13" s="11" t="n">
         <v>4.074</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="11" t="n">
         <v>6.772</v>
       </c>
     </row>
@@ -5383,22 +5393,22 @@
       <c r="L14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="11" t="n">
         <v>5.101</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="N14" s="11" t="n">
         <v>3.267</v>
       </c>
       <c r="O14" s="9" t="n">
         <v>2.936</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="11" t="n">
         <v>2.208</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="Q14" s="11" t="n">
         <v>3.689</v>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="R14" s="11" t="n">
         <v>6.167</v>
       </c>
     </row>
@@ -5418,22 +5428,22 @@
       <c r="L15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="11" t="n">
         <v>2.711</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="N15" s="11" t="n">
         <v>2.827</v>
       </c>
       <c r="O15" s="9" t="n">
         <v>2.196</v>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="P15" s="11" t="n">
         <v>1.848</v>
       </c>
-      <c r="Q15" s="3" t="n">
+      <c r="Q15" s="11" t="n">
         <v>2.992</v>
       </c>
-      <c r="R15" s="3" t="n">
+      <c r="R15" s="11" t="n">
         <v>5.936</v>
       </c>
     </row>
@@ -5441,22 +5451,22 @@
       <c r="L16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="M16" s="11" t="n">
         <v>2.794</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="N16" s="11" t="n">
         <v>2.235</v>
       </c>
       <c r="O16" s="9" t="n">
         <v>1.82</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="11" t="n">
         <v>1.688</v>
       </c>
-      <c r="Q16" s="3" t="n">
+      <c r="Q16" s="11" t="n">
         <v>2.955</v>
       </c>
-      <c r="R16" s="3" t="n">
+      <c r="R16" s="11" t="n">
         <v>5.383</v>
       </c>
     </row>
@@ -5494,22 +5504,22 @@
       <c r="L17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M17" s="11" t="n">
         <v>2.794</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="N17" s="11" t="n">
         <v>2.082</v>
       </c>
       <c r="O17" s="9" t="n">
         <v>1.854</v>
       </c>
-      <c r="P17" s="3" t="n">
+      <c r="P17" s="11" t="n">
         <v>1.639</v>
       </c>
-      <c r="Q17" s="3" t="n">
+      <c r="Q17" s="11" t="n">
         <v>2.969</v>
       </c>
-      <c r="R17" s="3" t="n">
+      <c r="R17" s="11" t="n">
         <v>5.411</v>
       </c>
     </row>
@@ -13599,8 +13609,8 @@
   </sheetPr>
   <dimension ref="A1:R575"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q26" activeCellId="0" sqref="Q26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13851,22 +13861,22 @@
       <c r="L8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="11" t="n">
         <v>3.773</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="11" t="n">
         <v>3.108</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="11" t="n">
         <v>2.479</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="11" t="n">
         <v>1.991</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="Q8" s="11" t="n">
         <v>1.902</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="11" t="n">
         <v>1.845</v>
       </c>
     </row>
@@ -13886,22 +13896,22 @@
       <c r="L9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="11" t="n">
         <v>5.338</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="11" t="n">
         <v>4.168</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="11" t="n">
         <v>3.347</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="11" t="n">
         <v>2.812</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="11" t="n">
         <v>2.907</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="11" t="n">
         <v>2.811</v>
       </c>
     </row>
@@ -13921,22 +13931,22 @@
       <c r="L10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="11" t="n">
         <v>8.08</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="11" t="n">
         <v>7.01</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="11" t="n">
         <v>6.006</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="11" t="n">
         <v>5.939</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="Q10" s="11" t="n">
         <v>5.48</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="11" t="n">
         <v>5.409</v>
       </c>
     </row>
@@ -13953,6 +13963,12 @@
       <c r="D11" s="1" t="n">
         <v>20.258</v>
       </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -13979,13 +13995,13 @@
       <c r="O12" s="9" t="n">
         <v>5.963</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="11" t="n">
         <v>3.773</v>
       </c>
-      <c r="Q12" s="3" t="n">
+      <c r="Q12" s="11" t="n">
         <v>5.338</v>
       </c>
-      <c r="R12" s="3" t="n">
+      <c r="R12" s="11" t="n">
         <v>8.08</v>
       </c>
     </row>
@@ -14014,13 +14030,13 @@
       <c r="O13" s="9" t="n">
         <v>3.569</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="11" t="n">
         <v>3.108</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="Q13" s="11" t="n">
         <v>4.168</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="11" t="n">
         <v>7.01</v>
       </c>
     </row>
@@ -14049,13 +14065,13 @@
       <c r="O14" s="9" t="n">
         <v>2.982</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="11" t="n">
         <v>2.479</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="Q14" s="11" t="n">
         <v>3.347</v>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="R14" s="11" t="n">
         <v>6.006</v>
       </c>
     </row>
@@ -14084,13 +14100,13 @@
       <c r="O15" s="9" t="n">
         <v>2.302</v>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="P15" s="11" t="n">
         <v>1.991</v>
       </c>
-      <c r="Q15" s="3" t="n">
+      <c r="Q15" s="11" t="n">
         <v>2.812</v>
       </c>
-      <c r="R15" s="3" t="n">
+      <c r="R15" s="11" t="n">
         <v>5.939</v>
       </c>
     </row>
@@ -14107,13 +14123,13 @@
       <c r="O16" s="9" t="n">
         <v>2.07</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="11" t="n">
         <v>1.902</v>
       </c>
-      <c r="Q16" s="3" t="n">
+      <c r="Q16" s="11" t="n">
         <v>2.907</v>
       </c>
-      <c r="R16" s="3" t="n">
+      <c r="R16" s="11" t="n">
         <v>5.48</v>
       </c>
     </row>
@@ -14160,13 +14176,13 @@
       <c r="O17" s="9" t="n">
         <v>1.858</v>
       </c>
-      <c r="P17" s="3" t="n">
+      <c r="P17" s="11" t="n">
         <v>1.845</v>
       </c>
-      <c r="Q17" s="3" t="n">
+      <c r="Q17" s="11" t="n">
         <v>2.811</v>
       </c>
-      <c r="R17" s="3" t="n">
+      <c r="R17" s="11" t="n">
         <v>5.409</v>
       </c>
     </row>
